--- a/참조자료/게시판(2019-07-25).xlsx
+++ b/참조자료/게시판(2019-07-25).xlsx
@@ -2854,10 +2854,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/bbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>menu_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3067,35 +3063,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/bbs</t>
+    <t>bbs</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/bbs/album</t>
+    <t>bbs/album</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/bbs/list</t>
+    <t>bbs/list</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/admin</t>
+    <t>admin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/system</t>
+    <t>admin/system</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/member</t>
+    <t>admin/member</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/member/login</t>
+    <t>admin/bbs</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/member/join</t>
+    <t>member/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/join</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3939,7 +3939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20730,7 +20730,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20757,7 +20757,7 @@
         <v>908</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -20768,21 +20768,21 @@
         <v>910</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20790,13 +20790,13 @@
         <v>912</v>
       </c>
       <c r="B5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -20807,7 +20807,7 @@
         <v>911</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -20821,7 +20821,7 @@
         <v>916</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -20835,7 +20835,7 @@
         <v>917</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20849,12 +20849,12 @@
         <v>918</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>922</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C10" t="s">
         <v>920</v>
@@ -20865,7 +20865,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C11" t="s">
         <v>921</v>
@@ -21577,7 +21577,7 @@
         <v>894</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>895</v>
@@ -21625,7 +21625,7 @@
         <v>890</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>889</v>
@@ -21779,16 +21779,16 @@
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>892</v>
@@ -21801,19 +21801,19 @@
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -21824,19 +21824,19 @@
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -21848,16 +21848,16 @@
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="26"/>
       <c r="C17" s="27" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -21869,16 +21869,16 @@
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -21890,13 +21890,13 @@
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="26"/>
       <c r="C19" s="27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>890</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>891</v>
@@ -21911,16 +21911,16 @@
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -21932,16 +21932,16 @@
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -22015,16 +22015,16 @@
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>959</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>960</v>
-      </c>
       <c r="F26" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>892</v>
@@ -22037,19 +22037,19 @@
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -22060,19 +22060,19 @@
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>964</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>966</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>965</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>967</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -22084,16 +22084,16 @@
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>963</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="F29" s="23" t="s">
         <v>966</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>964</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>967</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -22138,16 +22138,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>953</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>954</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>955</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:4">
